--- a/Luban/Config/Data/__tables__.xlsx
+++ b/Luban/Config/Data/__tables__.xlsx
@@ -109,13 +109,13 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>TbCanSignals</t>
-  </si>
-  <si>
-    <t>CanSignal</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>Graph.TbNodeGraph</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>nodeGraph.xlsx</t>
   </si>
 </sst>
 </file>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -595,19 +595,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,13 +1060,13 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="10.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
